--- a/example/exported_images/logo.xlsx
+++ b/example/exported_images/logo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fx/Dropbox/AKuriyanLab/Code/Python/Python_Scripts/mv_repo/example/exported_images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A72B668-0B36-694E-8566-C98FFB5FB2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065B138C-1A6C-9748-961F-9C301885FE4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="460" windowWidth="25600" windowHeight="13080" activeTab="3" xr2:uid="{8BC9568B-5511-D743-A627-8E9C1C4B0CDF}"/>
+    <workbookView xWindow="200" yWindow="1100" windowWidth="25600" windowHeight="13080" activeTab="3" xr2:uid="{8BC9568B-5511-D743-A627-8E9C1C4B0CDF}"/>
   </bookViews>
   <sheets>
     <sheet name="logo" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -89,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24510,15 +24514,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ACF3D1-0DAE-F949-939A-E0004253C84A}">
   <dimension ref="A1:DB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AE25" sqref="AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="82" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="30" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="82" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="17" customWidth="1"/>
     <col min="84" max="99" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="100" max="103" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -24843,7 +24849,7 @@
     </row>
     <row r="2" spans="1:106">
       <c r="A2">
-        <f t="shared" ref="A2:P10" si="0">A3+$AU$25</f>
+        <f t="shared" ref="A2:P9" si="0">A3+$AU$25</f>
         <v>0.4750000000000002</v>
       </c>
       <c r="B2">
@@ -33788,6 +33794,10 @@
       </c>
     </row>
     <row r="25" spans="1:106">
+      <c r="AE25" s="2">
+        <f>128/7/3/5</f>
+        <v>1.2190476190476189</v>
+      </c>
       <c r="AQ25" t="s">
         <v>0</v>
       </c>
